--- a/helpers/templates/purchase_order/ordr.xlsx
+++ b/helpers/templates/purchase_order/ordr.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flacocodes/Documents/GitHub/react-reducers/alpamed_sap_api/helpers/templates/purchase_order/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RFE ALPAMED\Desktop\alpamed_sap_api\helpers\templates\purchase_order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17414FE5-348A-3F4B-89F0-2DE08E27F46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8D0FDA-92E1-4BEE-8C6F-737F799BFCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2460" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1705,7 +1718,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="199">
   <si>
     <t>DocNum</t>
   </si>
@@ -2227,13 +2240,88 @@
   </si>
   <si>
     <t>CLI0000</t>
+  </si>
+  <si>
+    <t>U_example</t>
+  </si>
+  <si>
+    <t>U_ID_OV</t>
+  </si>
+  <si>
+    <t>U_Agencia</t>
+  </si>
+  <si>
+    <t>U_C_AA</t>
+  </si>
+  <si>
+    <t>U_Ref_AA</t>
+  </si>
+  <si>
+    <t>U_N_Capt</t>
+  </si>
+  <si>
+    <t>U_N_Tarja</t>
+  </si>
+  <si>
+    <t>U_FechaPago</t>
+  </si>
+  <si>
+    <t>U_Naviera</t>
+  </si>
+  <si>
+    <t>U_Nombre_Consig</t>
+  </si>
+  <si>
+    <t>U_Direccion_Consig</t>
+  </si>
+  <si>
+    <t>U_Proveedor</t>
+  </si>
+  <si>
+    <t>U_C_Proveedor</t>
+  </si>
+  <si>
+    <t>U_RFC</t>
+  </si>
+  <si>
+    <t>U_R_Social</t>
+  </si>
+  <si>
+    <t>U_Embarcador_Merc</t>
+  </si>
+  <si>
+    <t>U_Regimen</t>
+  </si>
+  <si>
+    <t>U_H_Solicitado</t>
+  </si>
+  <si>
+    <t>U_Estatus_contenedor</t>
+  </si>
+  <si>
+    <t>U_P_MBV</t>
+  </si>
+  <si>
+    <t>U_Aduana</t>
+  </si>
+  <si>
+    <t>U_DTA</t>
+  </si>
+  <si>
+    <t>U_Patente</t>
+  </si>
+  <si>
+    <t>U_V_Aduana</t>
+  </si>
+  <si>
+    <t>U_ID_WMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2629,18 +2717,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CX4"/>
+  <dimension ref="A1:DW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="CY1" workbookViewId="0">
+      <selection activeCell="CZ2" sqref="CZ2:DW2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:127">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2947,8 +3036,83 @@
       <c r="CX1" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>177</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>178</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>179</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>180</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>182</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>187</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>188</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>189</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>192</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:127">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3255,8 +3419,83 @@
       <c r="CX2" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="CY2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>176</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>177</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>178</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>179</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>180</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>181</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>182</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>184</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>185</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>187</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>188</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>189</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>190</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>193</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>194</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>195</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>196</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>197</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:127">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3270,7 +3509,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:127">
       <c r="A4" s="4" t="s">
         <v>172</v>
       </c>

--- a/helpers/templates/purchase_order/ordr.xlsx
+++ b/helpers/templates/purchase_order/ordr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
   <si>
     <t>DocNum</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>U_V_Aduana</t>
+  </si>
+  <si>
+    <t>U_Fecha_Pago</t>
   </si>
   <si>
     <t>U_ID_WMS</t>
@@ -618,7 +621,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,13 +641,25 @@
       <b/>
       <u/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -652,12 +667,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -718,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -747,13 +756,16 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1080,8 @@
     <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1574,10 +1586,10 @@
         <v>125</v>
       </c>
       <c r="DW1" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="DX1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1588,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -1612,7 +1624,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>11</v>
@@ -1621,40 +1633,40 @@
         <v>12</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>25</v>
@@ -1666,10 +1678,10 @@
         <v>27</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>30</v>
@@ -1678,16 +1690,16 @@
         <v>31</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>36</v>
@@ -1699,88 +1711,88 @@
         <v>38</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AQ2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BA2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BF2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BL2" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BN2" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BO2" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BP2" s="6" t="s">
         <v>67</v>
@@ -1789,103 +1801,103 @@
         <v>68</v>
       </c>
       <c r="BR2" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BT2" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BU2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BV2" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BW2" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BX2" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BY2" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BZ2" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CA2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CG2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CI2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CK2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CL2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="CM2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="CB2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="CJ2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="CN2" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CO2" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CP2" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CQ2" s="6" t="s">
         <v>94</v>
       </c>
       <c r="CR2" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CS2" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CT2" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CU2" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CV2" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CW2" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CX2" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CY2" s="2" t="s">
         <v>102</v>
@@ -1960,13 +1972,13 @@
         <v>125</v>
       </c>
       <c r="DW2" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="DX2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>20230515</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2106,7 +2118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>

--- a/helpers/templates/purchase_order/ordr.xlsx
+++ b/helpers/templates/purchase_order/ordr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="199">
   <si>
     <t>DocNum</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t>U_V_Aduana</t>
-  </si>
-  <si>
-    <t>U_Fecha_Pago</t>
   </si>
   <si>
     <t>U_ID_WMS</t>
@@ -621,7 +618,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,12 +658,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -727,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -756,9 +747,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -766,7 +754,7 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,134 +1064,134 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="12" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="76" max="76" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="77" max="77" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="78" max="78" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="79" max="79" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="80" max="80" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="81" max="81" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="82" max="82" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="83" max="83" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="84" max="84" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="85" max="85" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="86" max="86" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="87" max="87" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="88" max="88" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="89" max="89" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="90" max="90" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="91" max="91" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="92" max="92" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="93" max="93" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="94" max="94" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="95" max="95" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="96" max="96" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="97" max="97" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="98" max="98" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="99" max="99" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="100" max="100" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="101" max="101" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="102" max="102" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="103" max="103" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="104" max="104" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="105" max="105" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="106" max="106" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="107" max="107" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="108" max="108" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="109" max="109" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="110" max="110" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="111" max="111" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="112" max="112" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="113" max="113" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="114" max="114" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="115" max="115" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="116" max="116" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="117" max="117" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="118" max="118" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="119" max="119" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="120" max="120" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="121" max="121" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="122" max="122" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="123" max="123" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="124" max="124" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="125" max="125" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="126" max="126" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="127" max="127" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="128" max="128" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="11" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="85" max="85" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="96" max="96" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="97" max="97" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="98" max="98" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="99" max="99" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="100" max="100" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="101" max="101" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="102" max="102" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="103" max="103" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="104" max="104" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="105" max="105" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="106" max="106" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="107" max="107" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="108" max="108" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="109" max="109" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="110" max="110" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="111" max="111" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="113" max="113" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="114" max="114" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="115" max="115" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="116" max="116" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="117" max="117" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="118" max="118" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="119" max="119" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="120" max="120" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="121" max="121" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="122" max="122" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="123" max="123" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="124" max="124" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="125" max="125" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="126" max="126" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="127" max="127" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="128" max="128" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1586,10 +1574,10 @@
         <v>125</v>
       </c>
       <c r="DW1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="DX1" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="DX1" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1600,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -1624,7 +1612,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>11</v>
@@ -1633,40 +1621,40 @@
         <v>12</v>
       </c>
       <c r="N2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="U2" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>138</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>25</v>
@@ -1678,10 +1666,10 @@
         <v>27</v>
       </c>
       <c r="AC2" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>140</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>30</v>
@@ -1690,16 +1678,16 @@
         <v>31</v>
       </c>
       <c r="AG2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH2" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AJ2" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>36</v>
@@ -1711,88 +1699,88 @@
         <v>38</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AR2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="AS2" s="6" t="s">
+      <c r="AT2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AU2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AV2" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>151</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AX2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY2" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AZ2" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>154</v>
       </c>
       <c r="BA2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="BB2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="BC2" s="6" t="s">
+      <c r="BD2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="BD2" s="6" t="s">
+      <c r="BE2" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="BF2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="BG2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH2" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="BJ2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="BK2" s="6" t="s">
+      <c r="BL2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="BL2" s="6" t="s">
+      <c r="BM2" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="BM2" s="6" t="s">
+      <c r="BN2" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="BN2" s="6" t="s">
+      <c r="BO2" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="BO2" s="6" t="s">
-        <v>166</v>
       </c>
       <c r="BP2" s="6" t="s">
         <v>67</v>
@@ -1801,103 +1789,103 @@
         <v>68</v>
       </c>
       <c r="BR2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="BS2" s="6" t="s">
+      <c r="BT2" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="BT2" s="6" t="s">
+      <c r="BU2" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="BU2" s="6" t="s">
+      <c r="BV2" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="BV2" s="6" t="s">
+      <c r="BW2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="BW2" s="6" t="s">
+      <c r="BX2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="BX2" s="6" t="s">
+      <c r="BY2" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="BY2" s="6" t="s">
+      <c r="BZ2" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="BZ2" s="6" t="s">
+      <c r="CA2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="CA2" s="6" t="s">
+      <c r="CB2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="CB2" s="6" t="s">
+      <c r="CC2" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="CC2" s="6" t="s">
+      <c r="CD2" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="CD2" s="6" t="s">
+      <c r="CE2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="CE2" s="6" t="s">
+      <c r="CF2" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="CF2" s="6" t="s">
+      <c r="CG2" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="CG2" s="6" t="s">
+      <c r="CH2" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="CH2" s="6" t="s">
+      <c r="CI2" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="CI2" s="6" t="s">
+      <c r="CJ2" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CJ2" s="6" t="s">
+      <c r="CK2" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="CK2" s="6" t="s">
+      <c r="CL2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="CL2" s="6" t="s">
+      <c r="CM2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="CN2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CM2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="CN2" s="6" t="s">
+      <c r="CO2" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="CO2" s="6" t="s">
+      <c r="CP2" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="CP2" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="CQ2" s="6" t="s">
         <v>94</v>
       </c>
       <c r="CR2" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="CS2" s="6" t="s">
+      <c r="CT2" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="CT2" s="6" t="s">
+      <c r="CU2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="CU2" s="6" t="s">
+      <c r="CV2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="CV2" s="6" t="s">
+      <c r="CW2" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="CW2" s="6" t="s">
+      <c r="CX2" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="CX2" s="6" t="s">
-        <v>197</v>
       </c>
       <c r="CY2" s="2" t="s">
         <v>102</v>
@@ -1972,10 +1960,10 @@
         <v>125</v>
       </c>
       <c r="DW2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="DX2" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="DX2" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -1992,7 +1980,7 @@
         <v>20230515</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2116,15 +2104,15 @@
       <c r="DW3" s="4"/>
       <c r="DX3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>

--- a/helpers/templates/purchase_order/ordr.xlsx
+++ b/helpers/templates/purchase_order/ordr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
   <si>
     <t>DocNum</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>U_V_Aduana</t>
+  </si>
+  <si>
+    <t>U_U_Fecha_Pago</t>
   </si>
   <si>
     <t>U_ID_WMS</t>
@@ -1574,10 +1577,10 @@
         <v>125</v>
       </c>
       <c r="DW1" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="DX1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
@@ -1588,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -1612,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>11</v>
@@ -1621,40 +1624,40 @@
         <v>12</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>25</v>
@@ -1666,10 +1669,10 @@
         <v>27</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>30</v>
@@ -1678,16 +1681,16 @@
         <v>31</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>36</v>
@@ -1699,88 +1702,88 @@
         <v>38</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AQ2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BA2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BF2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BL2" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BN2" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BO2" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BP2" s="6" t="s">
         <v>67</v>
@@ -1789,103 +1792,103 @@
         <v>68</v>
       </c>
       <c r="BR2" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BT2" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BU2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BV2" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BW2" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BX2" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BY2" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BZ2" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="CA2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="CD2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CG2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CI2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CJ2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CK2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CL2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="CM2" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="CB2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="CJ2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="CN2" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CO2" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CP2" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CQ2" s="6" t="s">
         <v>94</v>
       </c>
       <c r="CR2" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CS2" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CT2" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CU2" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CV2" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CW2" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CX2" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CY2" s="2" t="s">
         <v>102</v>
@@ -1960,10 +1963,10 @@
         <v>125</v>
       </c>
       <c r="DW2" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="DX2" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -1980,7 +1983,7 @@
         <v>20230515</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2106,7 +2109,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>

--- a/helpers/templates/purchase_order/ordr.xlsx
+++ b/helpers/templates/purchase_order/ordr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="201">
   <si>
     <t>DocNum</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>U_Estatus_contenedor</t>
+  </si>
+  <si>
+    <t>U_chemours</t>
   </si>
   <si>
     <t>U_P_MBV</t>
@@ -1061,7 +1064,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:DX4"/>
+  <dimension ref="A1:DY4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1195,6 +1198,7 @@
     <col min="126" max="126" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="127" max="127" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="128" max="128" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="129" max="129" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -1582,6 +1586,9 @@
       <c r="DX1" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="DY1" s="4" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="5" t="s">
@@ -1591,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -1615,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>11</v>
@@ -1624,40 +1631,40 @@
         <v>12</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>25</v>
@@ -1669,10 +1676,10 @@
         <v>27</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE2" s="6" t="s">
         <v>30</v>
@@ -1681,16 +1688,16 @@
         <v>31</v>
       </c>
       <c r="AG2" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AH2" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI2" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>36</v>
@@ -1702,88 +1709,88 @@
         <v>38</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="AP2" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AQ2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="AR2" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT2" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AV2" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AW2" s="6" t="s">
         <v>48</v>
       </c>
       <c r="AX2" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AY2" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AZ2" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BA2" s="6" t="s">
         <v>52</v>
       </c>
       <c r="BB2" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="BC2" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="BD2" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BE2" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BF2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="BG2" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="BH2" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BI2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="BJ2" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BL2" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BM2" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="BN2" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="BO2" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="BP2" s="6" t="s">
         <v>67</v>
@@ -1792,103 +1799,103 @@
         <v>68</v>
       </c>
       <c r="BR2" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="BS2" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="BT2" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="BU2" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BV2" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BW2" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BX2" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BY2" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BZ2" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CA2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="CD2" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CG2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="CI2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CJ2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="CL2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="CM2" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="CB2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="CD2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="CJ2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="CN2" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CO2" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CP2" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="CQ2" s="6" t="s">
         <v>94</v>
       </c>
       <c r="CR2" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CS2" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CT2" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CU2" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CV2" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CW2" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="CX2" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CY2" s="2" t="s">
         <v>102</v>
@@ -1967,6 +1974,9 @@
       </c>
       <c r="DX2" s="4" t="s">
         <v>127</v>
+      </c>
+      <c r="DY2" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -1983,7 +1993,7 @@
         <v>20230515</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2106,10 +2116,11 @@
       <c r="DV3" s="4"/>
       <c r="DW3" s="4"/>
       <c r="DX3" s="4"/>
+      <c r="DY3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2238,6 +2249,7 @@
       <c r="DV4" s="4"/>
       <c r="DW4" s="4"/>
       <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
